--- a/data/ResultsSummary_20210322.xlsx
+++ b/data/ResultsSummary_20210322.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyangert/Documents/Git clones/rachel_noca/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A180FC7-1222-C142-BC72-6EB06161AB70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA281E-D4C5-5845-B857-121B667BF3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="580" windowWidth="22800" windowHeight="16900" xr2:uid="{346DF9BE-9AB8-9740-8FA8-D59C0DBC0564}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="22800" windowHeight="16900" xr2:uid="{346DF9BE-9AB8-9740-8FA8-D59C0DBC0564}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="54">
   <si>
     <t>Y</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Model avg set</t>
   </si>
   <si>
-    <t>Is there support for an interaction between year and elevation?</t>
-  </si>
-  <si>
     <t>ACMI</t>
   </si>
   <si>
-    <t>Is there support for an interaction between year and elevation^2?</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -181,6 +175,18 @@
   </si>
   <si>
     <t>stasis &gt;50% of time regardless</t>
+  </si>
+  <si>
+    <t>Quadratic elev x time</t>
+  </si>
+  <si>
+    <t>Linear elev x time (x fire if applicable)</t>
+  </si>
+  <si>
+    <t>janneke's idea: instead of thresholding, make this a heat map from 0-100% of the time</t>
+  </si>
+  <si>
+    <t>do something analogous for coefficient values?</t>
   </si>
 </sst>
 </file>
@@ -560,20 +566,21 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -601,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -610,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -621,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -630,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -641,19 +648,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -661,25 +668,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -687,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -710,22 +717,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -733,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -742,367 +749,373 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>0</v>
@@ -1110,82 +1123,82 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
@@ -1193,142 +1206,142 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
